--- a/prioritized.xlsx
+++ b/prioritized.xlsx
@@ -12301,14 +12301,2962 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Simulation run</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Numb. of generated aircraft</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total cost</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total waiting time [s]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Maximum delay</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Average waiting time [s]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Maximum capacity</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CPU-time [s]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>778</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.524</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>747</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21.992</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>661</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>712</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>723</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>38</v>
+      </c>
+      <c r="C8" t="n">
+        <v>715</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.817</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>767</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.223</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>769</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.628</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>39</v>
+      </c>
+      <c r="C11" t="n">
+        <v>727</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37</v>
+      </c>
+      <c r="C12" t="n">
+        <v>781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.351</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>739</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C14" t="n">
+        <v>727</v>
+      </c>
+      <c r="D14" t="n">
+        <v>38</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.949</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>749</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.876</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>708</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>698</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>705</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>702</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.026</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>769</v>
+      </c>
+      <c r="D20" t="n">
+        <v>60</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.114</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" t="n">
+        <v>685</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n">
+        <v>723</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.673</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>671</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>39</v>
+      </c>
+      <c r="C24" t="n">
+        <v>795</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.749</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>39</v>
+      </c>
+      <c r="C25" t="n">
+        <v>796</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>39</v>
+      </c>
+      <c r="C26" t="n">
+        <v>784</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.365</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>40</v>
+      </c>
+      <c r="C27" t="n">
+        <v>779</v>
+      </c>
+      <c r="D27" t="n">
+        <v>35</v>
+      </c>
+      <c r="E27" t="n">
+        <v>17</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G27" t="n">
+        <v>19</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.493</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>39</v>
+      </c>
+      <c r="C28" t="n">
+        <v>718</v>
+      </c>
+      <c r="D28" t="n">
+        <v>37</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.178</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>722</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.802</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>37</v>
+      </c>
+      <c r="C30" t="n">
+        <v>720</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>38</v>
+      </c>
+      <c r="C31" t="n">
+        <v>636</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>39</v>
+      </c>
+      <c r="C32" t="n">
+        <v>730</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>17</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.749</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>695</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.648</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>38</v>
+      </c>
+      <c r="C34" t="n">
+        <v>725</v>
+      </c>
+      <c r="D34" t="n">
+        <v>37</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="G34" t="n">
+        <v>18</v>
+      </c>
+      <c r="H34" t="n">
+        <v>14.211</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>39</v>
+      </c>
+      <c r="C35" t="n">
+        <v>724</v>
+      </c>
+      <c r="D35" t="n">
+        <v>51</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.308</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16</v>
+      </c>
+      <c r="H35" t="n">
+        <v>18.143</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>754</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G36" t="n">
+        <v>18</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>39</v>
+      </c>
+      <c r="C37" t="n">
+        <v>742</v>
+      </c>
+      <c r="D37" t="n">
+        <v>69</v>
+      </c>
+      <c r="E37" t="n">
+        <v>17</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="G37" t="n">
+        <v>16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.058999999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+      <c r="C38" t="n">
+        <v>685</v>
+      </c>
+      <c r="D38" t="n">
+        <v>30</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.146</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>689</v>
+      </c>
+      <c r="D39" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.562</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>751</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G40" t="n">
+        <v>15</v>
+      </c>
+      <c r="H40" t="n">
+        <v>14.362</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+      <c r="C41" t="n">
+        <v>734</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>681</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G42" t="n">
+        <v>19</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>36</v>
+      </c>
+      <c r="C43" t="n">
+        <v>684</v>
+      </c>
+      <c r="D43" t="n">
+        <v>34</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.872</v>
+      </c>
+      <c r="I43" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>37</v>
+      </c>
+      <c r="C44" t="n">
+        <v>729</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G44" t="n">
+        <v>15</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13.297</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>39</v>
+      </c>
+      <c r="C45" t="n">
+        <v>704</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="G45" t="n">
+        <v>15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.416</v>
+      </c>
+      <c r="I45" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>37</v>
+      </c>
+      <c r="C46" t="n">
+        <v>718</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.289</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39</v>
+      </c>
+      <c r="C47" t="n">
+        <v>727</v>
+      </c>
+      <c r="D47" t="n">
+        <v>70</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7.349</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40</v>
+      </c>
+      <c r="C48" t="n">
+        <v>669</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>37</v>
+      </c>
+      <c r="C49" t="n">
+        <v>749</v>
+      </c>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="n">
+        <v>21</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16</v>
+      </c>
+      <c r="H49" t="n">
+        <v>25.449</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>39</v>
+      </c>
+      <c r="C50" t="n">
+        <v>675</v>
+      </c>
+      <c r="D50" t="n">
+        <v>44</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10.621</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>40</v>
+      </c>
+      <c r="C51" t="n">
+        <v>706</v>
+      </c>
+      <c r="D51" t="n">
+        <v>21</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G51" t="n">
+        <v>18</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.677</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>39</v>
+      </c>
+      <c r="C52" t="n">
+        <v>697</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>39</v>
+      </c>
+      <c r="C53" t="n">
+        <v>751</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>17</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.282</v>
+      </c>
+      <c r="G53" t="n">
+        <v>21</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7.085</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>733</v>
+      </c>
+      <c r="D54" t="n">
+        <v>23</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16</v>
+      </c>
+      <c r="H54" t="n">
+        <v>22.989</v>
+      </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40</v>
+      </c>
+      <c r="C55" t="n">
+        <v>734</v>
+      </c>
+      <c r="D55" t="n">
+        <v>38</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.501</v>
+      </c>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>40</v>
+      </c>
+      <c r="C56" t="n">
+        <v>693</v>
+      </c>
+      <c r="D56" t="n">
+        <v>25</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G56" t="n">
+        <v>18</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.593</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>714</v>
+      </c>
+      <c r="D57" t="n">
+        <v>48</v>
+      </c>
+      <c r="E57" t="n">
+        <v>25</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="G57" t="n">
+        <v>15</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7.564</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+      <c r="C58" t="n">
+        <v>713</v>
+      </c>
+      <c r="D58" t="n">
+        <v>37</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G58" t="n">
+        <v>16</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.103</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>39</v>
+      </c>
+      <c r="C59" t="n">
+        <v>676</v>
+      </c>
+      <c r="D59" t="n">
+        <v>26</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G59" t="n">
+        <v>15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>38</v>
+      </c>
+      <c r="C60" t="n">
+        <v>751</v>
+      </c>
+      <c r="D60" t="n">
+        <v>29</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="G60" t="n">
+        <v>16</v>
+      </c>
+      <c r="H60" t="n">
+        <v>13.177</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>39</v>
+      </c>
+      <c r="C61" t="n">
+        <v>738</v>
+      </c>
+      <c r="D61" t="n">
+        <v>19</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="G61" t="n">
+        <v>15</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I61" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>38</v>
+      </c>
+      <c r="C62" t="n">
+        <v>764</v>
+      </c>
+      <c r="D62" t="n">
+        <v>46</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="G62" t="n">
+        <v>18</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5.359</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>38</v>
+      </c>
+      <c r="C63" t="n">
+        <v>737</v>
+      </c>
+      <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="G63" t="n">
+        <v>16</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>40</v>
+      </c>
+      <c r="C64" t="n">
+        <v>690</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G64" t="n">
+        <v>16</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>38</v>
+      </c>
+      <c r="C65" t="n">
+        <v>647</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G65" t="n">
+        <v>14</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38</v>
+      </c>
+      <c r="C66" t="n">
+        <v>688</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="G66" t="n">
+        <v>15</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>39</v>
+      </c>
+      <c r="C67" t="n">
+        <v>701</v>
+      </c>
+      <c r="D67" t="n">
+        <v>13</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="I67" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>39</v>
+      </c>
+      <c r="C68" t="n">
+        <v>695</v>
+      </c>
+      <c r="D68" t="n">
+        <v>30</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="G68" t="n">
+        <v>16</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>38</v>
+      </c>
+      <c r="C69" t="n">
+        <v>709</v>
+      </c>
+      <c r="D69" t="n">
+        <v>27</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.911</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>38</v>
+      </c>
+      <c r="C70" t="n">
+        <v>691</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27</v>
+      </c>
+      <c r="E70" t="n">
+        <v>17</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="G70" t="n">
+        <v>14</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37</v>
+      </c>
+      <c r="C71" t="n">
+        <v>701</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G71" t="n">
+        <v>18</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14.267</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>38</v>
+      </c>
+      <c r="C72" t="n">
+        <v>700</v>
+      </c>
+      <c r="D72" t="n">
+        <v>27</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="G72" t="n">
+        <v>17</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="I72" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>37</v>
+      </c>
+      <c r="C73" t="n">
+        <v>784</v>
+      </c>
+      <c r="D73" t="n">
+        <v>77</v>
+      </c>
+      <c r="E73" t="n">
+        <v>35</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="G73" t="n">
+        <v>18</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20.059</v>
+      </c>
+      <c r="I73" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>38</v>
+      </c>
+      <c r="C74" t="n">
+        <v>735</v>
+      </c>
+      <c r="D74" t="n">
+        <v>34</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G74" t="n">
+        <v>17</v>
+      </c>
+      <c r="H74" t="n">
+        <v>12.752</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>38</v>
+      </c>
+      <c r="C75" t="n">
+        <v>752</v>
+      </c>
+      <c r="D75" t="n">
+        <v>47</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="G75" t="n">
+        <v>18</v>
+      </c>
+      <c r="H75" t="n">
+        <v>16.418</v>
+      </c>
+      <c r="I75" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>40</v>
+      </c>
+      <c r="C76" t="n">
+        <v>707</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G76" t="n">
+        <v>16</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="I76" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>40</v>
+      </c>
+      <c r="C77" t="n">
+        <v>691</v>
+      </c>
+      <c r="D77" t="n">
+        <v>24</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.685</v>
+      </c>
+      <c r="I77" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>40</v>
+      </c>
+      <c r="C78" t="n">
+        <v>665</v>
+      </c>
+      <c r="D78" t="n">
+        <v>21</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="I78" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>38</v>
+      </c>
+      <c r="C79" t="n">
+        <v>738</v>
+      </c>
+      <c r="D79" t="n">
+        <v>33</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="G79" t="n">
+        <v>17</v>
+      </c>
+      <c r="H79" t="n">
+        <v>14.734</v>
+      </c>
+      <c r="I79" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>39</v>
+      </c>
+      <c r="C80" t="n">
+        <v>736</v>
+      </c>
+      <c r="D80" t="n">
+        <v>30</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="G80" t="n">
+        <v>19</v>
+      </c>
+      <c r="H80" t="n">
+        <v>14.325</v>
+      </c>
+      <c r="I80" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>40</v>
+      </c>
+      <c r="C81" t="n">
+        <v>735</v>
+      </c>
+      <c r="D81" t="n">
+        <v>36</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G81" t="n">
+        <v>17</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7.231</v>
+      </c>
+      <c r="I81" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>38</v>
+      </c>
+      <c r="C82" t="n">
+        <v>751</v>
+      </c>
+      <c r="D82" t="n">
+        <v>36</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4.506</v>
+      </c>
+      <c r="I82" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>35</v>
+      </c>
+      <c r="C83" t="n">
+        <v>758</v>
+      </c>
+      <c r="D83" t="n">
+        <v>25</v>
+      </c>
+      <c r="E83" t="n">
+        <v>17</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="G83" t="n">
+        <v>15</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.729</v>
+      </c>
+      <c r="I83" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>38</v>
+      </c>
+      <c r="C84" t="n">
+        <v>783</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="G84" t="n">
+        <v>19</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="I84" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>40</v>
+      </c>
+      <c r="C85" t="n">
+        <v>739</v>
+      </c>
+      <c r="D85" t="n">
+        <v>47</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5.698</v>
+      </c>
+      <c r="I85" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>39</v>
+      </c>
+      <c r="C86" t="n">
+        <v>739</v>
+      </c>
+      <c r="D86" t="n">
+        <v>36</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="I86" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>39</v>
+      </c>
+      <c r="C87" t="n">
+        <v>713</v>
+      </c>
+      <c r="D87" t="n">
+        <v>29</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15</v>
+      </c>
+      <c r="H87" t="n">
+        <v>9.512</v>
+      </c>
+      <c r="I87" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>38</v>
+      </c>
+      <c r="C88" t="n">
+        <v>703</v>
+      </c>
+      <c r="D88" t="n">
+        <v>56</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="I88" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>39</v>
+      </c>
+      <c r="C89" t="n">
+        <v>725</v>
+      </c>
+      <c r="D89" t="n">
+        <v>46</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="G89" t="n">
+        <v>19</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="I89" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>38</v>
+      </c>
+      <c r="C90" t="n">
+        <v>701</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G90" t="n">
+        <v>14</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="I90" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>37</v>
+      </c>
+      <c r="C91" t="n">
+        <v>744</v>
+      </c>
+      <c r="D91" t="n">
+        <v>47</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G91" t="n">
+        <v>16</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4.481</v>
+      </c>
+      <c r="I91" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>39</v>
+      </c>
+      <c r="C92" t="n">
+        <v>801</v>
+      </c>
+      <c r="D92" t="n">
+        <v>31</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20</v>
+      </c>
+      <c r="H92" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="I92" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39</v>
+      </c>
+      <c r="C93" t="n">
+        <v>817</v>
+      </c>
+      <c r="D93" t="n">
+        <v>85</v>
+      </c>
+      <c r="E93" t="n">
+        <v>41</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13.403</v>
+      </c>
+      <c r="I93" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>38</v>
+      </c>
+      <c r="C94" t="n">
+        <v>676</v>
+      </c>
+      <c r="D94" t="n">
+        <v>18</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G94" t="n">
+        <v>15</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="I94" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>37</v>
+      </c>
+      <c r="C95" t="n">
+        <v>764</v>
+      </c>
+      <c r="D95" t="n">
+        <v>48</v>
+      </c>
+      <c r="E95" t="n">
+        <v>23</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.297</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.158</v>
+      </c>
+      <c r="I95" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>38</v>
+      </c>
+      <c r="C96" t="n">
+        <v>673</v>
+      </c>
+      <c r="D96" t="n">
+        <v>21</v>
+      </c>
+      <c r="E96" t="n">
+        <v>13</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="G96" t="n">
+        <v>17</v>
+      </c>
+      <c r="H96" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>38</v>
+      </c>
+      <c r="C97" t="n">
+        <v>729</v>
+      </c>
+      <c r="D97" t="n">
+        <v>58</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4.753</v>
+      </c>
+      <c r="I97" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>37</v>
+      </c>
+      <c r="C98" t="n">
+        <v>668</v>
+      </c>
+      <c r="D98" t="n">
+        <v>16</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="G98" t="n">
+        <v>14</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8.064</v>
+      </c>
+      <c r="I98" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>40</v>
+      </c>
+      <c r="C99" t="n">
+        <v>759</v>
+      </c>
+      <c r="D99" t="n">
+        <v>55</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="G99" t="n">
+        <v>19</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I99" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>38</v>
+      </c>
+      <c r="C100" t="n">
+        <v>714</v>
+      </c>
+      <c r="D100" t="n">
+        <v>37</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="G100" t="n">
+        <v>14</v>
+      </c>
+      <c r="H100" t="n">
+        <v>15.674</v>
+      </c>
+      <c r="I100" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>38</v>
+      </c>
+      <c r="C101" t="n">
+        <v>673</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="G101" t="n">
+        <v>15</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.547</v>
+      </c>
+      <c r="I101" t="n">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12319,14 +15267,2962 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Simulation run</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Numb. of generated aircraft</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total cost</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Total waiting time [s]</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Maximum delay</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Average waiting time [s]</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Maximum capacity</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CPU-time [s]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>376</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>396</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21.504</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>360</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>344</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>366</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>340</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>397</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>318</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>349</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.187</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>355</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>303</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>332</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>328</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>406</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>339</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>343</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>353</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>366</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>383</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>326</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>352</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>377</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>423</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>380</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>323</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>348</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>330</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>313</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" t="n">
+        <v>338</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>351</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+      <c r="C34" t="n">
+        <v>366</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>352</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23</v>
+      </c>
+      <c r="E35" t="n">
+        <v>19</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>334</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>355</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n">
+        <v>325</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19</v>
+      </c>
+      <c r="C39" t="n">
+        <v>335</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10.686</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>354</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+      <c r="C41" t="n">
+        <v>372</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11.026</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>332</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>314</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="I43" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19</v>
+      </c>
+      <c r="C44" t="n">
+        <v>362</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" t="n">
+        <v>340</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="I45" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>350</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" t="n">
+        <v>315</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>296</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" t="n">
+        <v>381</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>261</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" t="n">
+        <v>326</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" t="n">
+        <v>333</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G52" t="n">
+        <v>9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" t="n">
+        <v>346</v>
+      </c>
+      <c r="D53" t="n">
+        <v>18</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>349</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19</v>
+      </c>
+      <c r="C55" t="n">
+        <v>324</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" t="n">
+        <v>364</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" t="n">
+        <v>361</v>
+      </c>
+      <c r="D57" t="n">
+        <v>19</v>
+      </c>
+      <c r="E57" t="n">
+        <v>17</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19</v>
+      </c>
+      <c r="C58" t="n">
+        <v>328</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>20</v>
+      </c>
+      <c r="C59" t="n">
+        <v>336</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" t="n">
+        <v>335</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="n">
+        <v>382</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="I61" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>20</v>
+      </c>
+      <c r="C62" t="n">
+        <v>370</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C63" t="n">
+        <v>367</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20</v>
+      </c>
+      <c r="C64" t="n">
+        <v>343</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C65" t="n">
+        <v>299</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" t="n">
+        <v>333</v>
+      </c>
+      <c r="D66" t="n">
+        <v>37</v>
+      </c>
+      <c r="E66" t="n">
+        <v>17</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20</v>
+      </c>
+      <c r="C67" t="n">
+        <v>337</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="I67" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="n">
+        <v>315</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>18</v>
+      </c>
+      <c r="C69" t="n">
+        <v>366</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19</v>
+      </c>
+      <c r="C70" t="n">
+        <v>332</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>10</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20</v>
+      </c>
+      <c r="C71" t="n">
+        <v>353</v>
+      </c>
+      <c r="D71" t="n">
+        <v>38</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>20</v>
+      </c>
+      <c r="C72" t="n">
+        <v>361</v>
+      </c>
+      <c r="D72" t="n">
+        <v>18</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G72" t="n">
+        <v>12</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="I72" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>19</v>
+      </c>
+      <c r="C73" t="n">
+        <v>358</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10.333</v>
+      </c>
+      <c r="I73" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C74" t="n">
+        <v>329</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>20</v>
+      </c>
+      <c r="C75" t="n">
+        <v>370</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>11</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I75" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20</v>
+      </c>
+      <c r="C76" t="n">
+        <v>385</v>
+      </c>
+      <c r="D76" t="n">
+        <v>31</v>
+      </c>
+      <c r="E76" t="n">
+        <v>19</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I76" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>20</v>
+      </c>
+      <c r="C77" t="n">
+        <v>333</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="I77" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" t="n">
+        <v>316</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="I78" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20</v>
+      </c>
+      <c r="C79" t="n">
+        <v>383</v>
+      </c>
+      <c r="D79" t="n">
+        <v>47</v>
+      </c>
+      <c r="E79" t="n">
+        <v>42</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.683</v>
+      </c>
+      <c r="I79" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>20</v>
+      </c>
+      <c r="C80" t="n">
+        <v>349</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="I80" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20</v>
+      </c>
+      <c r="C81" t="n">
+        <v>348</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>9</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="I81" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20</v>
+      </c>
+      <c r="C82" t="n">
+        <v>354</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="I82" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20</v>
+      </c>
+      <c r="C83" t="n">
+        <v>369</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="I83" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20</v>
+      </c>
+      <c r="C84" t="n">
+        <v>385</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="I84" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20</v>
+      </c>
+      <c r="C85" t="n">
+        <v>362</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G85" t="n">
+        <v>10</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I85" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="n">
+        <v>322</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>9</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="I86" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20</v>
+      </c>
+      <c r="C87" t="n">
+        <v>320</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="I87" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19</v>
+      </c>
+      <c r="C88" t="n">
+        <v>357</v>
+      </c>
+      <c r="D88" t="n">
+        <v>22</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="G88" t="n">
+        <v>8</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="I88" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19</v>
+      </c>
+      <c r="C89" t="n">
+        <v>382</v>
+      </c>
+      <c r="D89" t="n">
+        <v>27</v>
+      </c>
+      <c r="E89" t="n">
+        <v>24</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>11.466</v>
+      </c>
+      <c r="I89" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20</v>
+      </c>
+      <c r="C90" t="n">
+        <v>338</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I90" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19</v>
+      </c>
+      <c r="C91" t="n">
+        <v>340</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10.397</v>
+      </c>
+      <c r="I91" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20</v>
+      </c>
+      <c r="C92" t="n">
+        <v>393</v>
+      </c>
+      <c r="D92" t="n">
+        <v>27</v>
+      </c>
+      <c r="E92" t="n">
+        <v>21</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.971</v>
+      </c>
+      <c r="I92" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" t="n">
+        <v>331</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I93" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19</v>
+      </c>
+      <c r="C94" t="n">
+        <v>323</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="I94" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20</v>
+      </c>
+      <c r="C95" t="n">
+        <v>333</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G95" t="n">
+        <v>10</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="I95" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20</v>
+      </c>
+      <c r="C96" t="n">
+        <v>324</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>9</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" t="n">
+        <v>329</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G97" t="n">
+        <v>9</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I97" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19</v>
+      </c>
+      <c r="C98" t="n">
+        <v>352</v>
+      </c>
+      <c r="D98" t="n">
+        <v>33</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="I98" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="n">
+        <v>353</v>
+      </c>
+      <c r="D99" t="n">
+        <v>13</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G99" t="n">
+        <v>9</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.277</v>
+      </c>
+      <c r="I99" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="n">
+        <v>339</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>9</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="I100" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20</v>
+      </c>
+      <c r="C101" t="n">
+        <v>338</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>17</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="I101" t="n">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>